--- a/SistemaVentasBatia/Layouts/DatosCotizacion.xlsx
+++ b/SistemaVentasBatia/Layouts/DatosCotizacion.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP_Sistemas5\source\repos\Ventas\SistemaVentasBatia\Layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D390B5-9119-4999-9933-2EB0A90C6DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AD72F8-0E18-45FB-B860-ACF1A0E90DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CA5B3938-665E-4D09-AC9A-5AB75BED41FE}"/>
+    <workbookView xWindow="-19310" yWindow="-170" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resumen" sheetId="6" r:id="rId1"/>
-    <sheet name="Prospecto" sheetId="7" r:id="rId2"/>
-    <sheet name="Directorio" sheetId="1" r:id="rId3"/>
-    <sheet name="Plantilla" sheetId="5" r:id="rId4"/>
-    <sheet name="Producto" sheetId="2" r:id="rId5"/>
-    <sheet name="ProductoExtra" sheetId="3" r:id="rId6"/>
-    <sheet name="Servicio" sheetId="4" r:id="rId7"/>
+    <sheet name="Resumen" sheetId="1" r:id="rId1"/>
+    <sheet name="Prospecto" sheetId="2" r:id="rId2"/>
+    <sheet name="Direcciones" sheetId="3" r:id="rId3"/>
+    <sheet name="Plantillas" sheetId="4" r:id="rId4"/>
+    <sheet name="MaterialPlantillas" sheetId="5" r:id="rId5"/>
+    <sheet name="UniformePlantillas" sheetId="6" r:id="rId6"/>
+    <sheet name="EquipoPlantillas" sheetId="7" r:id="rId7"/>
+    <sheet name="HerramientaPlantillas" sheetId="8" r:id="rId8"/>
+    <sheet name="MaterialExtra" sheetId="9" r:id="rId9"/>
+    <sheet name="UniformeExtra" sheetId="10" r:id="rId10"/>
+    <sheet name="EquipoExtra" sheetId="11" r:id="rId11"/>
+    <sheet name="HerramientaExtra" sheetId="12" r:id="rId12"/>
+    <sheet name="ServicioExtra" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Id direccion</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="37">
+  <si>
+    <t>Id sucursal</t>
   </si>
   <si>
     <t>Nombre sucursal</t>
@@ -58,15 +64,140 @@
   </si>
   <si>
     <t>CP</t>
+  </si>
+  <si>
+    <t>Id plantilla</t>
+  </si>
+  <si>
+    <t>Puesto</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Clase</t>
+  </si>
+  <si>
+    <t>Sueldo</t>
+  </si>
+  <si>
+    <t>Aguinaldo</t>
+  </si>
+  <si>
+    <t>Vacaciones</t>
+  </si>
+  <si>
+    <t>Prima vacacional</t>
+  </si>
+  <si>
+    <t>ISN</t>
+  </si>
+  <si>
+    <t>IMSS</t>
+  </si>
+  <si>
+    <t>Bonos</t>
+  </si>
+  <si>
+    <t>Vales</t>
+  </si>
+  <si>
+    <t>Festivos</t>
+  </si>
+  <si>
+    <t>Domingos</t>
+  </si>
+  <si>
+    <t>Cubre descansos</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Jornada</t>
+  </si>
+  <si>
+    <t>Turno</t>
+  </si>
+  <si>
+    <t>Horario</t>
+  </si>
+  <si>
+    <t>Dia descanso</t>
+  </si>
+  <si>
+    <t>Tiene material</t>
+  </si>
+  <si>
+    <t>Fecha alta</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Clave</t>
+  </si>
+  <si>
+    <t>Precio unitario</t>
+  </si>
+  <si>
+    <t>Importe mensual</t>
+  </si>
+  <si>
+    <t>Frecuencia</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -80,15 +211,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,7 +221,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -114,7 +244,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -122,45 +252,110 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -177,7 +372,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -193,7 +388,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -205,7 +400,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -222,7 +417,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -252,29 +447,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -304,23 +482,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,178 +633,267 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B506B47-1D99-473F-BB78-B082FDEBA6A7}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="14"/>
+    </row>
+    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+    </row>
+    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+    </row>
+    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE53F439-16F6-4073-96E6-68F1FE36811F}">
+  <sheetPr codeName="Hoja10"/>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10" style="24" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="13" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13" style="28" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="28" customWidth="1"/>
+    <col min="7" max="7" width="19" style="28" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8732B606-0664-482F-9C23-07484E8C09FF}">
-  <dimension ref="A1:B9"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F238235-10A7-4E01-84AB-2C2BF6BC2CD2}">
+  <sheetPr codeName="Hoja11"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10" style="24" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="13" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13" style="28" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="28" customWidth="1"/>
+    <col min="7" max="7" width="19" style="28" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AB272E-9149-4BCE-8586-04ED540206F0}">
-  <dimension ref="A1:J1"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959A798B-F484-476A-A55D-971742BFE61F}">
+  <sheetPr codeName="Hoja12"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="21.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="3"/>
-    <col min="10" max="10" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="10" style="24" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="13" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13" style="28" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="28" customWidth="1"/>
+    <col min="7" max="7" width="19" style="28" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
+      <c r="D1" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -651,56 +901,573 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2F8B35-CCD5-468A-A1E7-4154DB1372B3}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE7C06A0-FE25-4E71-B3CE-EF842D01C62F}">
+  <sheetPr codeName="Hoja13"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10" style="24" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="28" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A0D02D-F434-49DA-AB1F-A31F76676DDB}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5128317F-2A60-4396-8C4E-CB8D6576147F}">
+  <sheetPr codeName="Hoja2"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="93.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="18"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="17"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="18"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="18"/>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="29"/>
+      <c r="M9" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD9ABBA-9F00-4A1D-8DB2-4310E5E54078}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0DCF48-E33D-49C3-BD80-3825023D67B7}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A10A09-DCF0-4A94-850F-248972253F52}">
+  <sheetPr codeName="Hoja3"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="8" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15FCF1A-86A2-4087-A2C0-D15C6DD9E5B3}">
+  <sheetPr codeName="Hoja4"/>
+  <dimension ref="A1:W1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="14" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="28" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="28" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="28" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="28" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="28" customWidth="1"/>
+    <col min="12" max="13" width="11.28515625" style="28" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="28" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" style="28" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="28"/>
+    <col min="18" max="18" width="11.5703125" style="24" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" style="24" customWidth="1"/>
+    <col min="20" max="20" width="53.140625" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" style="24" customWidth="1"/>
+    <col min="22" max="22" width="19.85546875" style="24" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" style="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CE2753-AF7D-41C6-A105-9D6FDCBD5B91}">
+  <sheetPr codeName="Hoja5"/>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" style="24" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="24" customWidth="1"/>
+    <col min="3" max="4" width="13" style="24" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="28" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" style="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5F0774-6923-4041-96FB-0E88A9C4309E}">
+  <sheetPr codeName="Hoja6"/>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" style="24" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="24" customWidth="1"/>
+    <col min="3" max="4" width="13" style="24" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="28" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" style="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF50E9CB-D2F3-428F-9F02-BA56BA79EED6}">
+  <sheetPr codeName="Hoja7"/>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" style="24" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="24" customWidth="1"/>
+    <col min="3" max="4" width="13" style="24" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="28" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" style="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0AAD19-CE43-42B3-A8A2-2B049379CCCE}">
+  <sheetPr codeName="Hoja8"/>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" style="24" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="24" customWidth="1"/>
+    <col min="3" max="4" width="13" style="24" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="28" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" style="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2973B8C2-1C79-4268-A337-41EEFD3C1543}">
+  <sheetPr codeName="Hoja9"/>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" style="24" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="13" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13" style="28" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="28" customWidth="1"/>
+    <col min="7" max="7" width="19" style="28" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SistemaVentasBatia/Layouts/DatosCotizacion.xlsx
+++ b/SistemaVentasBatia/Layouts/DatosCotizacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP_Sistemas5\source\repos\Ventas\SistemaVentasBatia\Layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AD72F8-0E18-45FB-B860-ACF1A0E90DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB36EB8-25E7-4796-91C7-072538E982BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-170" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="38">
   <si>
     <t>Id sucursal</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Descripción</t>
   </si>
 </sst>
 </file>
@@ -221,13 +224,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -272,39 +275,24 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -314,22 +302,19 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -338,10 +323,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -353,6 +338,52 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -644,7 +675,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -652,81 +683,81 @@
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="36"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="36"/>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="36"/>
     </row>
     <row r="9" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="37"/>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="37"/>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
     </row>
     <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
     </row>
     <row r="19" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -736,7 +767,7 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE53F439-16F6-4073-96E6-68F1FE36811F}">
   <sheetPr codeName="Hoja10"/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -744,43 +775,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="24" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13" style="28" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="28" customWidth="1"/>
-    <col min="7" max="7" width="19" style="28" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="24" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="24" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="29" customWidth="1"/>
+    <col min="9" max="10" width="17.140625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -792,7 +825,7 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F238235-10A7-4E01-84AB-2C2BF6BC2CD2}">
   <sheetPr codeName="Hoja11"/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -800,43 +833,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="24" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13" style="28" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="28" customWidth="1"/>
-    <col min="7" max="7" width="19" style="28" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="24" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="24" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="29" customWidth="1"/>
+    <col min="9" max="10" width="17.140625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -848,7 +883,7 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959A798B-F484-476A-A55D-971742BFE61F}">
   <sheetPr codeName="Hoja12"/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -856,43 +891,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="24" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13" style="28" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="28" customWidth="1"/>
-    <col min="7" max="7" width="19" style="28" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="24" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="24" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="29" customWidth="1"/>
+    <col min="9" max="10" width="17.140625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -912,43 +949,41 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="24" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="24" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="28" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="28" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="24" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="24" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="33" customWidth="1"/>
+    <col min="6" max="7" width="17.140625" style="22" customWidth="1"/>
+    <col min="8" max="9" width="17.140625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -974,39 +1009,39 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="30"/>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="17"/>
+      <c r="B3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="17"/>
+      <c r="B5" s="12"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="17"/>
+      <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="29"/>
+      <c r="B9" s="23"/>
       <c r="M9" s="1"/>
     </row>
   </sheetData>
@@ -1025,7 +1060,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="24" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="18" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
@@ -1035,31 +1070,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1079,98 +1114,98 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="14" style="24" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="28" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="28" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="28" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="28" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="28" customWidth="1"/>
-    <col min="12" max="13" width="11.28515625" style="28" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="28" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" style="28" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="28"/>
-    <col min="18" max="18" width="11.5703125" style="24" customWidth="1"/>
-    <col min="19" max="19" width="15.85546875" style="24" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="14" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="22" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="22" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="22" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="22" customWidth="1"/>
+    <col min="12" max="13" width="11.28515625" style="22" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="22" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" style="22" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="22"/>
+    <col min="18" max="18" width="11.5703125" style="18" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" style="18" customWidth="1"/>
     <col min="20" max="20" width="53.140625" customWidth="1"/>
-    <col min="21" max="21" width="18.140625" style="24" customWidth="1"/>
-    <col min="22" max="22" width="19.85546875" style="24" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" style="24" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" style="18" customWidth="1"/>
+    <col min="22" max="22" width="19.85546875" style="18" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="W1" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1182,7 +1217,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CE2753-AF7D-41C6-A105-9D6FDCBD5B91}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1190,46 +1225,49 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="24" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="24" customWidth="1"/>
-    <col min="3" max="4" width="13" style="24" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="28" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="24" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="24" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="17" style="18" customWidth="1"/>
+    <col min="5" max="5" width="47.140625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="29" customWidth="1"/>
+    <col min="10" max="11" width="17.140625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1241,7 +1279,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5F0774-6923-4041-96FB-0E88A9C4309E}">
   <sheetPr codeName="Hoja6"/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1249,46 +1287,50 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="24" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="24" customWidth="1"/>
-    <col min="3" max="4" width="13" style="24" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="28" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="24" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="24" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="17" style="18" customWidth="1"/>
+    <col min="5" max="5" width="47.140625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="29" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1300,7 +1342,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF50E9CB-D2F3-428F-9F02-BA56BA79EED6}">
   <sheetPr codeName="Hoja7"/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1308,46 +1350,49 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="24" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="24" customWidth="1"/>
-    <col min="3" max="4" width="13" style="24" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="28" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="24" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="24" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="17" style="18" customWidth="1"/>
+    <col min="5" max="5" width="47.140625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="29" customWidth="1"/>
+    <col min="10" max="11" width="17.140625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1359,7 +1404,74 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0AAD19-CE43-42B3-A8A2-2B049379CCCE}">
   <sheetPr codeName="Hoja8"/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="17" style="18" customWidth="1"/>
+    <col min="5" max="5" width="47" style="27" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="29" customWidth="1"/>
+    <col min="10" max="11" width="17.140625" style="18" customWidth="1"/>
+    <col min="12" max="15" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2973B8C2-1C79-4268-A337-41EEFD3C1543}">
+  <sheetPr codeName="Hoja9"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1367,105 +1479,48 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="24" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="24" customWidth="1"/>
-    <col min="3" max="4" width="13" style="24" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="28" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="24" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="24" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="29" customWidth="1"/>
+    <col min="9" max="10" width="17.140625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="16" t="s">
         <v>30</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2973B8C2-1C79-4268-A337-41EEFD3C1543}">
-  <sheetPr codeName="Hoja9"/>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10" style="24" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13" style="28" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="28" customWidth="1"/>
-    <col min="7" max="7" width="19" style="28" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="24" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="24" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="K1" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SistemaVentasBatia/Layouts/DatosCotizacion.xlsx
+++ b/SistemaVentasBatia/Layouts/DatosCotizacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP_Sistemas5\source\repos\Ventas\SistemaVentasBatia\Layouts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB36EB8-25E7-4796-91C7-072538E982BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAE3155-3853-4953-8118-D6358AFF0671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -668,7 +668,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -1054,7 +1054,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1066,7 +1066,8 @@
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="8" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1288,15 +1289,14 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="18" customWidth="1"/>
     <col min="4" max="4" width="17" style="18" customWidth="1"/>
     <col min="5" max="5" width="47.140625" style="27" customWidth="1"/>
     <col min="6" max="6" width="17.140625" style="29" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="32" customWidth="1"/>
     <col min="8" max="8" width="17.140625" style="22" customWidth="1"/>
     <col min="9" max="9" width="17.140625" style="29" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="10" max="11" width="17.140625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
